--- a/biology/Histoire de la zoologie et de la botanique/Académie_des_sciences_de_Chicago/Académie_des_sciences_de_Chicago.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Académie_des_sciences_de_Chicago/Académie_des_sciences_de_Chicago.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Acad%C3%A9mie_des_sciences_de_Chicago</t>
+          <t>Académie_des_sciences_de_Chicago</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Académie des sciences de Chicago (ou Chicago Academy of Sciences) a été fondée en 1857 sous la direction de Robert Kennicott (1835-1866) et de William Stimpson (1832-1872).
 L'institution se flattait d’avoir rassemblé lune des plus riches collections d'histoire naturelle d'Amérique. Celles-ci, ainsi que la bibliothèque, furent totalement détruites lors du grand incendie de 1871. L'Académie reconstruit un immeuble mais elle perd celui-ci lors de la dépression économique des années 1880. Ce n'est qu'en 1894, que l'institution devient à nouveau propriétaire d'un bâtiment dans le quartier du parc qui s'enorgueillit d'offrir aux visiteurs les premiers dioramas ainsi qu’un planétarium.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Acad%C3%A9mie_des_sciences_de_Chicago</t>
+          <t>Académie_des_sciences_de_Chicago</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Quelques repères historiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La Smithsonian Institution de Washington a été créée en 1846, onze ans avant l’Académie des sciences de Chicago, en quelque sorte sous son aval. Son premier directeur, Robert Kennicott (1835-1866) était le protégé de Spencer Fullerton Baird (1823-1887), le directeur de l’institution de Washington.
 </t>
